--- a/biology/Botanique/Agave_parryi/Agave_parryi.xlsx
+++ b/biology/Botanique/Agave_parryi/Agave_parryi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Agave parryi est une espèce de plante de la famille des Asparagaceae (sous-famille des Agavoideae) et du genre des Agaves.
 </t>
@@ -511,10 +523,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plante succulente à croissance lente, Agave parryi se présente sous la forme d'une rosette compacte de feuilles vert-gris à vert-clair, charnues, avec les indentations des feuilles précédentes sur leurs faces externes, finissant par en épines brunes à noires caractéristiques. Elle mesure en moyenne environ 70 à 80 cm de largeur et de hauteur, de forme pommelée compacte à plus ouverte. De manière occasionnelle, la plante produit une remarquable hampe florale pouvant mesurer jusqu'à 3,5 mètres de hauteur, portant des fleurs jaunes, avant de mourir[2].
-L'espèce a été initialement décrite en 1858 par le botaniste américain John Torrey sous le nom de Agave americana var. latifolia[3] puis a été formellement identifiée comme espèce à part entière en 1875 par le botaniste allemand George Engelmann[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plante succulente à croissance lente, Agave parryi se présente sous la forme d'une rosette compacte de feuilles vert-gris à vert-clair, charnues, avec les indentations des feuilles précédentes sur leurs faces externes, finissant par en épines brunes à noires caractéristiques. Elle mesure en moyenne environ 70 à 80 cm de largeur et de hauteur, de forme pommelée compacte à plus ouverte. De manière occasionnelle, la plante produit une remarquable hampe florale pouvant mesurer jusqu'à 3,5 mètres de hauteur, portant des fleurs jaunes, avant de mourir.
+L'espèce a été initialement décrite en 1858 par le botaniste américain John Torrey sous le nom de Agave americana var. latifolia puis a été formellement identifiée comme espèce à part entière en 1875 par le botaniste allemand George Engelmann.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Distribution et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Découverte dans le sud-est de l'État de l'Arizona, alors territoire du Mexique, l'espèce est présente aux États-Unis au Nouveau-Mexique et au Texas. Elle est également largement distribuée dans le nord du Mexique dans les États de Chihuahua, Durango et Sonora.
 </t>
@@ -574,9 +590,11 @@
           <t>Synonymes et variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>L'espèce présente de nombreux synonymes et reclassifications au cours du temps[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'espèce présente de nombreux synonymes et reclassifications au cours du temps :
 Agave americana var. latifolia (Torrey, 1858)
 Agave parryi subsp. parryi (Engelmann, 1875)
 Agave parryi var. parryi (Engelmann, 1875)
